--- a/accessdb/templateSheets/04defFamSheet.xlsx
+++ b/accessdb/templateSheets/04defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FAD198-4B95-4639-9490-3F028E30BFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7AEA1F-994B-4F58-87DF-909CDB6FB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -1265,9 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:F47"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1643,7 +1641,7 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>

--- a/accessdb/templateSheets/04defFamSheet.xlsx
+++ b/accessdb/templateSheets/04defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7AEA1F-994B-4F58-87DF-909CDB6FB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A26B61-13D6-43EC-8D49-01A8BB60921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -343,12 +343,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -373,6 +367,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +396,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -404,7 +410,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -418,7 +424,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -432,7 +438,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1265,7 +1271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C41" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="C6:F48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1280,21 +1288,21 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="27"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="27"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1304,22 +1312,22 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1330,10 +1338,10 @@
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -1342,10 +1350,10 @@
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -1354,10 +1362,10 @@
       <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -1366,10 +1374,10 @@
       <c r="B9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -1378,10 +1386,10 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -1390,10 +1398,10 @@
       <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -1402,10 +1410,10 @@
       <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -1414,10 +1422,10 @@
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -1426,10 +1434,10 @@
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -1438,10 +1446,10 @@
       <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -1450,10 +1458,10 @@
       <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
@@ -1462,10 +1470,10 @@
       <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
@@ -1474,10 +1482,10 @@
       <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -1486,10 +1494,10 @@
       <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
@@ -1498,10 +1506,10 @@
       <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
@@ -1510,80 +1518,80 @@
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
@@ -1592,22 +1600,22 @@
       <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>18</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
@@ -1616,188 +1624,188 @@
       <c r="B31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>22</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>23</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>24</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>25</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>26</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
     </row>
     <row r="40" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>27</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>28</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>29</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
     </row>
     <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
@@ -1806,10 +1814,10 @@
       <c r="B48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -1820,7 +1828,7 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="6"/>
@@ -1829,14 +1837,14 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="22"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="1"/>
@@ -1846,7 +1854,7 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1"/>
@@ -1856,7 +1864,7 @@
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="8"/>
@@ -1866,7 +1874,7 @@
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="8"/>
@@ -1874,14 +1882,14 @@
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
